--- a/techniqo/data_new_ticker/IRCON.xlsx
+++ b/techniqo/data_new_ticker/IRCON.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G485"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17361,6 +17361,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C486" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D486" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="E486" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="F486" t="n">
+        <v>374627</v>
+      </c>
+      <c r="G486" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>83.84999999999999</v>
+      </c>
+      <c r="C487" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="D487" t="n">
+        <v>83</v>
+      </c>
+      <c r="E487" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F487" t="n">
+        <v>379077</v>
+      </c>
+      <c r="G487" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/IRCON.xlsx
+++ b/techniqo/data_new_ticker/IRCON.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G487"/>
+  <dimension ref="A1:G489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17411,6 +17411,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>84</v>
+      </c>
+      <c r="C488" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="D488" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="E488" t="n">
+        <v>87</v>
+      </c>
+      <c r="F488" t="n">
+        <v>2369589</v>
+      </c>
+      <c r="G488" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>89</v>
+      </c>
+      <c r="C489" t="n">
+        <v>90.45</v>
+      </c>
+      <c r="D489" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E489" t="n">
+        <v>89</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1826884</v>
+      </c>
+      <c r="G489" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
